--- a/docs/it001/burndown.xlsx
+++ b/docs/it001/burndown.xlsx
@@ -1029,15 +1029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1359,13 +1359,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
